--- a/libretin-descarga.xlsx
+++ b/libretin-descarga.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0d0ce0bfa4aef656/Documentos/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\antho\Documents\Ship Form\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="8_{06C3127C-4279-4B71-9BFE-05682642F095}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{4AF8BA31-FFE0-452E-9B43-E5A1CBCC3E5E}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1CEE987-1423-4A02-B9C5-3DFB21D06A32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1" sheetId="1" r:id="rId1"/>
@@ -68,17 +68,6 @@
     <r>
       <rPr>
         <b/>
-        <sz val="10.5"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>GUATEMALA MARITIMA, S.A.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
         <sz val="9"/>
         <rFont val="Arial"/>
         <family val="2"/>
@@ -275,6 +264,9 @@
   </si>
   <si>
     <t>PAG. 07</t>
+  </si>
+  <si>
+    <t>NAVIERA EJEMPLO, S.A.</t>
   </si>
 </sst>
 </file>
@@ -646,13 +638,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="67">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -664,79 +656,73 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="165" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="13" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="14" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="15" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="15" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -757,95 +743,101 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="165" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="13" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="14" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="15" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="15" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -865,9 +857,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -905,9 +897,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -940,26 +932,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -992,26 +967,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1190,944 +1148,1021 @@
   </sheetPr>
   <dimension ref="A1:L68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A59" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="A53" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:L3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="7.5" customWidth="1"/>
-    <col min="2" max="2" width="25.1640625" customWidth="1"/>
-    <col min="3" max="3" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.44140625" customWidth="1"/>
+    <col min="2" max="2" width="25.109375" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.6640625" customWidth="1"/>
-    <col min="5" max="5" width="10.1640625" customWidth="1"/>
-    <col min="6" max="6" width="16.83203125" customWidth="1"/>
+    <col min="5" max="5" width="10.109375" customWidth="1"/>
+    <col min="6" max="6" width="16.77734375" customWidth="1"/>
     <col min="7" max="7" width="14.6640625" customWidth="1"/>
-    <col min="8" max="8" width="10.1640625" customWidth="1"/>
+    <col min="8" max="8" width="10.109375" customWidth="1"/>
     <col min="9" max="9" width="5.33203125" customWidth="1"/>
     <col min="10" max="10" width="14.6640625" customWidth="1"/>
-    <col min="11" max="11" width="27.1640625" customWidth="1"/>
+    <col min="11" max="11" width="27.109375" customWidth="1"/>
     <col min="12" max="12" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="16.5" customHeight="1">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="43" t="s">
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44"/>
-      <c r="J1" s="44"/>
-      <c r="K1" s="45"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="37"/>
       <c r="L1" s="8" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="16.5" customHeight="1">
-      <c r="A2" s="22"/>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="46" t="s">
-        <v>23</v>
-      </c>
-      <c r="H2" s="47"/>
-      <c r="I2" s="47"/>
-      <c r="J2" s="47"/>
-      <c r="K2" s="48"/>
+      <c r="A2" s="27"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="40"/>
       <c r="L2" s="6"/>
     </row>
     <row r="3" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A3" s="30" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="30"/>
-      <c r="L3" s="30"/>
+      <c r="A3" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="28"/>
+      <c r="K3" s="28"/>
+      <c r="L3" s="28"/>
     </row>
     <row r="4" spans="1:12" ht="12.75" customHeight="1">
       <c r="A4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="31" t="s">
+      <c r="E4" s="30"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="32"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="5" t="s">
+      <c r="H4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="I4" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="34" t="s">
+      <c r="J4" s="33"/>
+      <c r="K4" s="34"/>
+      <c r="L4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="J4" s="35"/>
-      <c r="K4" s="36"/>
-      <c r="L4" s="4" t="s">
+    </row>
+    <row r="5" spans="1:12" ht="51.9" customHeight="1">
+      <c r="A5" s="9"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="24"/>
+      <c r="J5" s="25"/>
+      <c r="K5" s="26"/>
+      <c r="L5" s="18"/>
+    </row>
+    <row r="6" spans="1:12" ht="12.9" customHeight="1">
+      <c r="A6" s="41"/>
+      <c r="B6" s="41"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="43" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" ht="51.95" customHeight="1">
-      <c r="A5" s="49"/>
-      <c r="B5" s="50"/>
-      <c r="C5" s="51"/>
-      <c r="D5" s="52"/>
-      <c r="E5" s="53"/>
-      <c r="F5" s="54"/>
-      <c r="G5" s="55"/>
-      <c r="H5" s="61"/>
-      <c r="I5" s="56"/>
-      <c r="J5" s="57"/>
-      <c r="K5" s="58"/>
-      <c r="L5" s="64"/>
-    </row>
-    <row r="6" spans="1:12" ht="12.95" customHeight="1">
-      <c r="A6" s="14"/>
-      <c r="B6" s="14"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="16" t="s">
+      <c r="E6" s="44"/>
+      <c r="F6" s="44"/>
+      <c r="G6" s="45"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="62"/>
-      <c r="I6" s="19" t="s">
+      <c r="J6" s="47"/>
+      <c r="K6" s="48"/>
+      <c r="L6" s="19"/>
+    </row>
+    <row r="7" spans="1:12" ht="15" customHeight="1">
+      <c r="D7" s="52" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="52"/>
+      <c r="F7" s="52"/>
+      <c r="G7" s="52"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="J6" s="20"/>
-      <c r="K6" s="21"/>
-      <c r="L6" s="65"/>
-    </row>
-    <row r="7" spans="1:12" ht="15" customHeight="1">
-      <c r="D7" s="9" t="s">
+      <c r="J7" s="50"/>
+      <c r="K7" s="51"/>
+      <c r="L7" s="20"/>
+    </row>
+    <row r="10" spans="1:12" ht="14.4">
+      <c r="A10" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="27"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="53"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="63"/>
-      <c r="I7" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="J7" s="11"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="66"/>
-    </row>
-    <row r="10" spans="1:12" ht="15">
-      <c r="A10" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10" s="22"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="23"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="37" t="s">
+      <c r="I10" s="55"/>
+      <c r="J10" s="55"/>
+      <c r="K10" s="56"/>
+      <c r="L10" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="14.4">
+      <c r="A11" s="27"/>
+      <c r="B11" s="27"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="53"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="I10" s="38"/>
-      <c r="J10" s="38"/>
-      <c r="K10" s="39"/>
-      <c r="L10" s="7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="15">
-      <c r="A11" s="22"/>
-      <c r="B11" s="22"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="23"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="40" t="s">
-        <v>19</v>
-      </c>
-      <c r="I11" s="41"/>
-      <c r="J11" s="41"/>
-      <c r="K11" s="42"/>
+      <c r="I11" s="58"/>
+      <c r="J11" s="58"/>
+      <c r="K11" s="59"/>
       <c r="L11" s="1"/>
     </row>
-    <row r="12" spans="1:12" ht="13.5">
-      <c r="A12" s="30" t="s">
-        <v>3</v>
-      </c>
-      <c r="B12" s="30"/>
-      <c r="C12" s="30"/>
-      <c r="D12" s="30"/>
-      <c r="E12" s="30"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="30"/>
-      <c r="H12" s="30"/>
-      <c r="I12" s="30"/>
-      <c r="J12" s="30"/>
-      <c r="K12" s="30"/>
-      <c r="L12" s="30"/>
+    <row r="12" spans="1:12" ht="13.8">
+      <c r="A12" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" s="28"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="28"/>
+      <c r="I12" s="28"/>
+      <c r="J12" s="28"/>
+      <c r="K12" s="28"/>
+      <c r="L12" s="28"/>
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="C13" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="D13" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="D13" s="31" t="s">
+      <c r="E13" s="30"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E13" s="32"/>
-      <c r="F13" s="33"/>
-      <c r="G13" s="5" t="s">
+      <c r="H13" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H13" s="3" t="s">
+      <c r="I13" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="I13" s="34" t="s">
+      <c r="J13" s="33"/>
+      <c r="K13" s="34"/>
+      <c r="L13" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="J13" s="35"/>
-      <c r="K13" s="36"/>
-      <c r="L13" s="4" t="s">
+    </row>
+    <row r="14" spans="1:12" ht="51.9" customHeight="1">
+      <c r="A14" s="9"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="24"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="26"/>
+      <c r="L14" s="18"/>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="41"/>
+      <c r="B15" s="41"/>
+      <c r="C15" s="42"/>
+      <c r="D15" s="43" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" ht="51.95" customHeight="1">
-      <c r="A14" s="49"/>
-      <c r="B14" s="50"/>
-      <c r="C14" s="51"/>
-      <c r="D14" s="52"/>
-      <c r="E14" s="53"/>
-      <c r="F14" s="54"/>
-      <c r="G14" s="55"/>
-      <c r="H14" s="61"/>
-      <c r="I14" s="56"/>
-      <c r="J14" s="57"/>
-      <c r="K14" s="58"/>
-      <c r="L14" s="64"/>
-    </row>
-    <row r="15" spans="1:12">
-      <c r="A15" s="14"/>
-      <c r="B15" s="14"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="16" t="s">
+      <c r="E15" s="44"/>
+      <c r="F15" s="44"/>
+      <c r="G15" s="45"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="62"/>
-      <c r="I15" s="19" t="s">
+      <c r="J15" s="47"/>
+      <c r="K15" s="48"/>
+      <c r="L15" s="19"/>
+    </row>
+    <row r="16" spans="1:12" ht="13.8">
+      <c r="D16" s="52" t="s">
+        <v>16</v>
+      </c>
+      <c r="E16" s="52"/>
+      <c r="F16" s="52"/>
+      <c r="G16" s="52"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="J15" s="20"/>
-      <c r="K15" s="21"/>
-      <c r="L15" s="65"/>
-    </row>
-    <row r="16" spans="1:12" ht="13.5">
-      <c r="D16" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="63"/>
-      <c r="I16" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="J16" s="11"/>
-      <c r="K16" s="12"/>
-      <c r="L16" s="66"/>
+      <c r="J16" s="50"/>
+      <c r="K16" s="51"/>
+      <c r="L16" s="20"/>
     </row>
     <row r="20" spans="1:12" ht="15" customHeight="1">
-      <c r="A20" s="22" t="s">
+      <c r="A20" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B20" s="22"/>
-      <c r="C20" s="22"/>
-      <c r="D20" s="22"/>
-      <c r="E20" s="22"/>
-      <c r="F20" s="23"/>
-      <c r="G20" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="H20" s="25"/>
-      <c r="I20" s="25"/>
-      <c r="J20" s="25"/>
-      <c r="K20" s="26"/>
+      <c r="B20" s="27"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="27"/>
+      <c r="F20" s="53"/>
+      <c r="G20" s="60" t="s">
+        <v>23</v>
+      </c>
+      <c r="H20" s="61"/>
+      <c r="I20" s="61"/>
+      <c r="J20" s="61"/>
+      <c r="K20" s="62"/>
       <c r="L20" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="15" customHeight="1">
-      <c r="A21" s="22"/>
-      <c r="B21" s="22"/>
-      <c r="C21" s="22"/>
-      <c r="D21" s="22"/>
-      <c r="E21" s="22"/>
-      <c r="F21" s="23"/>
-      <c r="G21" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="H21" s="28"/>
-      <c r="I21" s="28"/>
-      <c r="J21" s="28"/>
-      <c r="K21" s="29"/>
+      <c r="A21" s="27"/>
+      <c r="B21" s="27"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="53"/>
+      <c r="G21" s="63" t="s">
+        <v>23</v>
+      </c>
+      <c r="H21" s="64"/>
+      <c r="I21" s="64"/>
+      <c r="J21" s="64"/>
+      <c r="K21" s="65"/>
       <c r="L21" s="1"/>
     </row>
-    <row r="22" spans="1:12" ht="13.5">
-      <c r="A22" s="30" t="s">
-        <v>3</v>
-      </c>
-      <c r="B22" s="30"/>
-      <c r="C22" s="30"/>
-      <c r="D22" s="30"/>
-      <c r="E22" s="30"/>
-      <c r="F22" s="30"/>
-      <c r="G22" s="30"/>
-      <c r="H22" s="30"/>
-      <c r="I22" s="30"/>
-      <c r="J22" s="30"/>
-      <c r="K22" s="30"/>
-      <c r="L22" s="30"/>
+    <row r="22" spans="1:12" ht="13.8">
+      <c r="A22" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" s="28"/>
+      <c r="C22" s="28"/>
+      <c r="D22" s="28"/>
+      <c r="E22" s="28"/>
+      <c r="F22" s="28"/>
+      <c r="G22" s="28"/>
+      <c r="H22" s="28"/>
+      <c r="I22" s="28"/>
+      <c r="J22" s="28"/>
+      <c r="K22" s="28"/>
+      <c r="L22" s="28"/>
     </row>
     <row r="23" spans="1:12">
       <c r="A23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B23" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="C23" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="D23" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="D23" s="31" t="s">
+      <c r="E23" s="30"/>
+      <c r="F23" s="31"/>
+      <c r="G23" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E23" s="32"/>
-      <c r="F23" s="33"/>
-      <c r="G23" s="5" t="s">
+      <c r="H23" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H23" s="3" t="s">
+      <c r="I23" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="I23" s="34" t="s">
+      <c r="J23" s="33"/>
+      <c r="K23" s="34"/>
+      <c r="L23" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="J23" s="35"/>
-      <c r="K23" s="36"/>
-      <c r="L23" s="4" t="s">
+    </row>
+    <row r="24" spans="1:12" ht="51.9" customHeight="1">
+      <c r="A24" s="9"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="23"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="15"/>
+      <c r="I24" s="24"/>
+      <c r="J24" s="25"/>
+      <c r="K24" s="26"/>
+      <c r="L24" s="18"/>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25" s="41"/>
+      <c r="B25" s="41"/>
+      <c r="C25" s="42"/>
+      <c r="D25" s="43" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="24" spans="1:12" ht="51.95" customHeight="1">
-      <c r="A24" s="49"/>
-      <c r="B24" s="50"/>
-      <c r="C24" s="51"/>
-      <c r="D24" s="52"/>
-      <c r="E24" s="53"/>
-      <c r="F24" s="54"/>
-      <c r="G24" s="55"/>
-      <c r="H24" s="61"/>
-      <c r="I24" s="56"/>
-      <c r="J24" s="57"/>
-      <c r="K24" s="58"/>
-      <c r="L24" s="64"/>
-    </row>
-    <row r="25" spans="1:12">
-      <c r="A25" s="14"/>
-      <c r="B25" s="14"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="16" t="s">
+      <c r="E25" s="44"/>
+      <c r="F25" s="44"/>
+      <c r="G25" s="45"/>
+      <c r="H25" s="16"/>
+      <c r="I25" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="E25" s="17"/>
-      <c r="F25" s="17"/>
-      <c r="G25" s="18"/>
-      <c r="H25" s="62"/>
-      <c r="I25" s="19" t="s">
+      <c r="J25" s="47"/>
+      <c r="K25" s="48"/>
+      <c r="L25" s="19"/>
+    </row>
+    <row r="26" spans="1:12" ht="13.8">
+      <c r="D26" s="52" t="s">
+        <v>16</v>
+      </c>
+      <c r="E26" s="52"/>
+      <c r="F26" s="52"/>
+      <c r="G26" s="52"/>
+      <c r="H26" s="17"/>
+      <c r="I26" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="J25" s="20"/>
-      <c r="K25" s="21"/>
-      <c r="L25" s="65"/>
-    </row>
-    <row r="26" spans="1:12" ht="13.5">
-      <c r="D26" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="63"/>
-      <c r="I26" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="J26" s="11"/>
-      <c r="K26" s="12"/>
-      <c r="L26" s="66"/>
-    </row>
-    <row r="30" spans="1:12" ht="15">
-      <c r="A30" s="22" t="s">
+      <c r="J26" s="50"/>
+      <c r="K26" s="51"/>
+      <c r="L26" s="20"/>
+    </row>
+    <row r="30" spans="1:12" ht="14.4">
+      <c r="A30" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="22"/>
-      <c r="C30" s="22"/>
-      <c r="D30" s="22"/>
-      <c r="E30" s="22"/>
-      <c r="F30" s="23"/>
-      <c r="G30" s="24" t="s">
+      <c r="B30" s="27"/>
+      <c r="C30" s="27"/>
+      <c r="D30" s="27"/>
+      <c r="E30" s="27"/>
+      <c r="F30" s="53"/>
+      <c r="G30" s="60" t="s">
+        <v>20</v>
+      </c>
+      <c r="H30" s="61"/>
+      <c r="I30" s="61"/>
+      <c r="J30" s="61"/>
+      <c r="K30" s="62"/>
+      <c r="L30" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="14.4">
+      <c r="A31" s="27"/>
+      <c r="B31" s="27"/>
+      <c r="C31" s="27"/>
+      <c r="D31" s="27"/>
+      <c r="E31" s="27"/>
+      <c r="F31" s="53"/>
+      <c r="G31" s="63" t="s">
         <v>21</v>
       </c>
-      <c r="H30" s="25"/>
-      <c r="I30" s="25"/>
-      <c r="J30" s="25"/>
-      <c r="K30" s="26"/>
-      <c r="L30" s="7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" ht="15">
-      <c r="A31" s="22"/>
-      <c r="B31" s="22"/>
-      <c r="C31" s="22"/>
-      <c r="D31" s="22"/>
-      <c r="E31" s="22"/>
-      <c r="F31" s="23"/>
-      <c r="G31" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="H31" s="28"/>
-      <c r="I31" s="28"/>
-      <c r="J31" s="28"/>
-      <c r="K31" s="29"/>
+      <c r="H31" s="64"/>
+      <c r="I31" s="64"/>
+      <c r="J31" s="64"/>
+      <c r="K31" s="65"/>
       <c r="L31" s="1"/>
     </row>
-    <row r="32" spans="1:12" ht="13.5">
-      <c r="A32" s="30" t="s">
-        <v>3</v>
-      </c>
-      <c r="B32" s="30"/>
-      <c r="C32" s="30"/>
-      <c r="D32" s="30"/>
-      <c r="E32" s="30"/>
-      <c r="F32" s="30"/>
-      <c r="G32" s="30"/>
-      <c r="H32" s="30"/>
-      <c r="I32" s="30"/>
-      <c r="J32" s="30"/>
-      <c r="K32" s="30"/>
-      <c r="L32" s="30"/>
+    <row r="32" spans="1:12" ht="13.8">
+      <c r="A32" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="B32" s="28"/>
+      <c r="C32" s="28"/>
+      <c r="D32" s="28"/>
+      <c r="E32" s="28"/>
+      <c r="F32" s="28"/>
+      <c r="G32" s="28"/>
+      <c r="H32" s="28"/>
+      <c r="I32" s="28"/>
+      <c r="J32" s="28"/>
+      <c r="K32" s="28"/>
+      <c r="L32" s="28"/>
     </row>
     <row r="33" spans="1:12">
       <c r="A33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B33" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="C33" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="D33" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="D33" s="31" t="s">
+      <c r="E33" s="30"/>
+      <c r="F33" s="31"/>
+      <c r="G33" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E33" s="32"/>
-      <c r="F33" s="33"/>
-      <c r="G33" s="5" t="s">
+      <c r="H33" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H33" s="3" t="s">
+      <c r="I33" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="I33" s="34" t="s">
+      <c r="J33" s="33"/>
+      <c r="K33" s="34"/>
+      <c r="L33" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="J33" s="35"/>
-      <c r="K33" s="36"/>
-      <c r="L33" s="4" t="s">
+    </row>
+    <row r="34" spans="1:12" ht="51.9" customHeight="1">
+      <c r="A34" s="9"/>
+      <c r="B34" s="10"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="21"/>
+      <c r="E34" s="22"/>
+      <c r="F34" s="23"/>
+      <c r="G34" s="12"/>
+      <c r="H34" s="15"/>
+      <c r="I34" s="24"/>
+      <c r="J34" s="25"/>
+      <c r="K34" s="26"/>
+      <c r="L34" s="18"/>
+    </row>
+    <row r="35" spans="1:12">
+      <c r="A35" s="41"/>
+      <c r="B35" s="41"/>
+      <c r="C35" s="42"/>
+      <c r="D35" s="43" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="34" spans="1:12" ht="51.95" customHeight="1">
-      <c r="A34" s="49"/>
-      <c r="B34" s="50"/>
-      <c r="C34" s="51"/>
-      <c r="D34" s="52"/>
-      <c r="E34" s="53"/>
-      <c r="F34" s="54"/>
-      <c r="G34" s="55"/>
-      <c r="H34" s="61"/>
-      <c r="I34" s="56"/>
-      <c r="J34" s="57"/>
-      <c r="K34" s="58"/>
-      <c r="L34" s="64"/>
-    </row>
-    <row r="35" spans="1:12">
-      <c r="A35" s="14"/>
-      <c r="B35" s="14"/>
-      <c r="C35" s="15"/>
-      <c r="D35" s="16" t="s">
+      <c r="E35" s="44"/>
+      <c r="F35" s="44"/>
+      <c r="G35" s="45"/>
+      <c r="H35" s="16"/>
+      <c r="I35" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="E35" s="17"/>
-      <c r="F35" s="17"/>
-      <c r="G35" s="18"/>
-      <c r="H35" s="62"/>
-      <c r="I35" s="19" t="s">
+      <c r="J35" s="47"/>
+      <c r="K35" s="48"/>
+      <c r="L35" s="19"/>
+    </row>
+    <row r="36" spans="1:12" ht="13.8">
+      <c r="D36" s="52" t="s">
+        <v>16</v>
+      </c>
+      <c r="E36" s="52"/>
+      <c r="F36" s="52"/>
+      <c r="G36" s="52"/>
+      <c r="H36" s="17"/>
+      <c r="I36" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="J35" s="20"/>
-      <c r="K35" s="21"/>
-      <c r="L35" s="65"/>
-    </row>
-    <row r="36" spans="1:12" ht="13.5">
-      <c r="D36" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E36" s="9"/>
-      <c r="F36" s="9"/>
-      <c r="G36" s="9"/>
-      <c r="H36" s="63"/>
-      <c r="I36" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="J36" s="11"/>
-      <c r="K36" s="12"/>
-      <c r="L36" s="66"/>
-    </row>
-    <row r="40" spans="1:12" ht="15">
-      <c r="A40" s="22" t="s">
+      <c r="J36" s="50"/>
+      <c r="K36" s="51"/>
+      <c r="L36" s="20"/>
+    </row>
+    <row r="40" spans="1:12" ht="14.4">
+      <c r="A40" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B40" s="22"/>
-      <c r="C40" s="22"/>
-      <c r="D40" s="22"/>
-      <c r="E40" s="22"/>
-      <c r="F40" s="23"/>
-      <c r="G40" s="24" t="s">
+      <c r="B40" s="27"/>
+      <c r="C40" s="27"/>
+      <c r="D40" s="27"/>
+      <c r="E40" s="27"/>
+      <c r="F40" s="53"/>
+      <c r="G40" s="60" t="s">
+        <v>24</v>
+      </c>
+      <c r="H40" s="61"/>
+      <c r="I40" s="61"/>
+      <c r="J40" s="61"/>
+      <c r="K40" s="62"/>
+      <c r="L40" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" ht="14.4">
+      <c r="A41" s="27"/>
+      <c r="B41" s="27"/>
+      <c r="C41" s="27"/>
+      <c r="D41" s="27"/>
+      <c r="E41" s="27"/>
+      <c r="F41" s="53"/>
+      <c r="G41" s="63" t="s">
         <v>25</v>
       </c>
-      <c r="H40" s="25"/>
-      <c r="I40" s="25"/>
-      <c r="J40" s="25"/>
-      <c r="K40" s="26"/>
-      <c r="L40" s="7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" ht="15">
-      <c r="A41" s="22"/>
-      <c r="B41" s="22"/>
-      <c r="C41" s="22"/>
-      <c r="D41" s="22"/>
-      <c r="E41" s="22"/>
-      <c r="F41" s="23"/>
-      <c r="G41" s="27" t="s">
-        <v>26</v>
-      </c>
-      <c r="H41" s="28"/>
-      <c r="I41" s="28"/>
-      <c r="J41" s="28"/>
-      <c r="K41" s="29"/>
+      <c r="H41" s="64"/>
+      <c r="I41" s="64"/>
+      <c r="J41" s="64"/>
+      <c r="K41" s="65"/>
       <c r="L41" s="1"/>
     </row>
-    <row r="42" spans="1:12" ht="13.5">
-      <c r="A42" s="30" t="s">
-        <v>3</v>
-      </c>
-      <c r="B42" s="30"/>
-      <c r="C42" s="30"/>
-      <c r="D42" s="30"/>
-      <c r="E42" s="30"/>
-      <c r="F42" s="30"/>
-      <c r="G42" s="30"/>
-      <c r="H42" s="30"/>
-      <c r="I42" s="30"/>
-      <c r="J42" s="30"/>
-      <c r="K42" s="30"/>
-      <c r="L42" s="30"/>
+    <row r="42" spans="1:12" ht="13.8">
+      <c r="A42" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="B42" s="28"/>
+      <c r="C42" s="28"/>
+      <c r="D42" s="28"/>
+      <c r="E42" s="28"/>
+      <c r="F42" s="28"/>
+      <c r="G42" s="28"/>
+      <c r="H42" s="28"/>
+      <c r="I42" s="28"/>
+      <c r="J42" s="28"/>
+      <c r="K42" s="28"/>
+      <c r="L42" s="28"/>
     </row>
     <row r="43" spans="1:12">
       <c r="A43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B43" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B43" s="4" t="s">
+      <c r="C43" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C43" s="3" t="s">
+      <c r="D43" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="D43" s="31" t="s">
+      <c r="E43" s="30"/>
+      <c r="F43" s="31"/>
+      <c r="G43" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E43" s="32"/>
-      <c r="F43" s="33"/>
-      <c r="G43" s="5" t="s">
+      <c r="H43" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H43" s="3" t="s">
+      <c r="I43" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="I43" s="34" t="s">
+      <c r="J43" s="33"/>
+      <c r="K43" s="34"/>
+      <c r="L43" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="J43" s="35"/>
-      <c r="K43" s="36"/>
-      <c r="L43" s="4" t="s">
+    </row>
+    <row r="44" spans="1:12" ht="51.9" customHeight="1">
+      <c r="A44" s="9"/>
+      <c r="B44" s="10"/>
+      <c r="C44" s="11"/>
+      <c r="D44" s="21"/>
+      <c r="E44" s="22"/>
+      <c r="F44" s="23"/>
+      <c r="G44" s="12"/>
+      <c r="H44" s="15"/>
+      <c r="I44" s="24"/>
+      <c r="J44" s="25"/>
+      <c r="K44" s="26"/>
+      <c r="L44" s="18"/>
+    </row>
+    <row r="45" spans="1:12">
+      <c r="A45" s="41"/>
+      <c r="B45" s="41"/>
+      <c r="C45" s="42"/>
+      <c r="D45" s="43" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="44" spans="1:12" ht="51.95" customHeight="1">
-      <c r="A44" s="49"/>
-      <c r="B44" s="50"/>
-      <c r="C44" s="51"/>
-      <c r="D44" s="52"/>
-      <c r="E44" s="53"/>
-      <c r="F44" s="54"/>
-      <c r="G44" s="55"/>
-      <c r="H44" s="61"/>
-      <c r="I44" s="56"/>
-      <c r="J44" s="57"/>
-      <c r="K44" s="58"/>
-      <c r="L44" s="64"/>
-    </row>
-    <row r="45" spans="1:12">
-      <c r="A45" s="14"/>
-      <c r="B45" s="14"/>
-      <c r="C45" s="15"/>
-      <c r="D45" s="16" t="s">
+      <c r="E45" s="44"/>
+      <c r="F45" s="44"/>
+      <c r="G45" s="45"/>
+      <c r="H45" s="16"/>
+      <c r="I45" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="E45" s="17"/>
-      <c r="F45" s="17"/>
-      <c r="G45" s="18"/>
-      <c r="H45" s="62"/>
-      <c r="I45" s="19" t="s">
+      <c r="J45" s="47"/>
+      <c r="K45" s="48"/>
+      <c r="L45" s="19"/>
+    </row>
+    <row r="46" spans="1:12" ht="13.8">
+      <c r="D46" s="52" t="s">
+        <v>16</v>
+      </c>
+      <c r="E46" s="52"/>
+      <c r="F46" s="52"/>
+      <c r="G46" s="52"/>
+      <c r="H46" s="17"/>
+      <c r="I46" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="J45" s="20"/>
-      <c r="K45" s="21"/>
-      <c r="L45" s="65"/>
-    </row>
-    <row r="46" spans="1:12" ht="13.5">
-      <c r="D46" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E46" s="9"/>
-      <c r="F46" s="9"/>
-      <c r="G46" s="9"/>
-      <c r="H46" s="63"/>
-      <c r="I46" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="J46" s="11"/>
-      <c r="K46" s="12"/>
-      <c r="L46" s="66"/>
-    </row>
-    <row r="50" spans="1:12" ht="15">
-      <c r="A50" s="22" t="s">
+      <c r="J46" s="50"/>
+      <c r="K46" s="51"/>
+      <c r="L46" s="20"/>
+    </row>
+    <row r="50" spans="1:12" ht="14.4">
+      <c r="A50" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B50" s="22"/>
-      <c r="C50" s="22"/>
-      <c r="D50" s="22"/>
-      <c r="E50" s="22"/>
-      <c r="F50" s="23"/>
-      <c r="G50" s="24" t="s">
+      <c r="B50" s="27"/>
+      <c r="C50" s="27"/>
+      <c r="D50" s="27"/>
+      <c r="E50" s="27"/>
+      <c r="F50" s="53"/>
+      <c r="G50" s="60" t="s">
+        <v>26</v>
+      </c>
+      <c r="H50" s="61"/>
+      <c r="I50" s="61"/>
+      <c r="J50" s="61"/>
+      <c r="K50" s="62"/>
+      <c r="L50" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" ht="14.4">
+      <c r="A51" s="27"/>
+      <c r="B51" s="27"/>
+      <c r="C51" s="27"/>
+      <c r="D51" s="27"/>
+      <c r="E51" s="27"/>
+      <c r="F51" s="53"/>
+      <c r="G51" s="63" t="s">
         <v>27</v>
       </c>
-      <c r="H50" s="25"/>
-      <c r="I50" s="25"/>
-      <c r="J50" s="25"/>
-      <c r="K50" s="26"/>
-      <c r="L50" s="7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" ht="15">
-      <c r="A51" s="22"/>
-      <c r="B51" s="22"/>
-      <c r="C51" s="22"/>
-      <c r="D51" s="22"/>
-      <c r="E51" s="22"/>
-      <c r="F51" s="23"/>
-      <c r="G51" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="H51" s="28"/>
-      <c r="I51" s="28"/>
-      <c r="J51" s="28"/>
-      <c r="K51" s="29"/>
+      <c r="H51" s="64"/>
+      <c r="I51" s="64"/>
+      <c r="J51" s="64"/>
+      <c r="K51" s="65"/>
       <c r="L51" s="1"/>
     </row>
-    <row r="52" spans="1:12" ht="13.5">
-      <c r="A52" s="30" t="s">
-        <v>3</v>
-      </c>
-      <c r="B52" s="30"/>
-      <c r="C52" s="30"/>
-      <c r="D52" s="30"/>
-      <c r="E52" s="30"/>
-      <c r="F52" s="30"/>
-      <c r="G52" s="30"/>
-      <c r="H52" s="30"/>
-      <c r="I52" s="30"/>
-      <c r="J52" s="30"/>
-      <c r="K52" s="30"/>
-      <c r="L52" s="30"/>
+    <row r="52" spans="1:12" ht="13.8">
+      <c r="A52" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="B52" s="28"/>
+      <c r="C52" s="28"/>
+      <c r="D52" s="28"/>
+      <c r="E52" s="28"/>
+      <c r="F52" s="28"/>
+      <c r="G52" s="28"/>
+      <c r="H52" s="28"/>
+      <c r="I52" s="28"/>
+      <c r="J52" s="28"/>
+      <c r="K52" s="28"/>
+      <c r="L52" s="28"/>
     </row>
     <row r="53" spans="1:12">
       <c r="A53" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B53" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B53" s="4" t="s">
+      <c r="C53" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C53" s="3" t="s">
+      <c r="D53" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="D53" s="31" t="s">
+      <c r="E53" s="30"/>
+      <c r="F53" s="31"/>
+      <c r="G53" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E53" s="32"/>
-      <c r="F53" s="33"/>
-      <c r="G53" s="5" t="s">
+      <c r="H53" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H53" s="3" t="s">
+      <c r="I53" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="I53" s="34" t="s">
+      <c r="J53" s="33"/>
+      <c r="K53" s="34"/>
+      <c r="L53" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="J53" s="35"/>
-      <c r="K53" s="36"/>
-      <c r="L53" s="4" t="s">
+    </row>
+    <row r="54" spans="1:12" ht="51.9" customHeight="1">
+      <c r="A54" s="9"/>
+      <c r="B54" s="10"/>
+      <c r="C54" s="11"/>
+      <c r="D54" s="21"/>
+      <c r="E54" s="22"/>
+      <c r="F54" s="23"/>
+      <c r="G54" s="12"/>
+      <c r="H54" s="15"/>
+      <c r="I54" s="24"/>
+      <c r="J54" s="25"/>
+      <c r="K54" s="26"/>
+      <c r="L54" s="18"/>
+    </row>
+    <row r="55" spans="1:12">
+      <c r="A55" s="41"/>
+      <c r="B55" s="41"/>
+      <c r="C55" s="42"/>
+      <c r="D55" s="43" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="54" spans="1:12" ht="51.95" customHeight="1">
-      <c r="A54" s="49"/>
-      <c r="B54" s="50"/>
-      <c r="C54" s="51"/>
-      <c r="D54" s="52"/>
-      <c r="E54" s="53"/>
-      <c r="F54" s="54"/>
-      <c r="G54" s="55"/>
-      <c r="H54" s="61"/>
-      <c r="I54" s="56"/>
-      <c r="J54" s="57"/>
-      <c r="K54" s="58"/>
-      <c r="L54" s="64"/>
-    </row>
-    <row r="55" spans="1:12">
-      <c r="A55" s="14"/>
-      <c r="B55" s="14"/>
-      <c r="C55" s="15"/>
-      <c r="D55" s="16" t="s">
+      <c r="E55" s="44"/>
+      <c r="F55" s="44"/>
+      <c r="G55" s="45"/>
+      <c r="H55" s="16"/>
+      <c r="I55" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="E55" s="17"/>
-      <c r="F55" s="17"/>
-      <c r="G55" s="18"/>
-      <c r="H55" s="62"/>
-      <c r="I55" s="19" t="s">
+      <c r="J55" s="47"/>
+      <c r="K55" s="48"/>
+      <c r="L55" s="19"/>
+    </row>
+    <row r="56" spans="1:12" ht="13.8">
+      <c r="D56" s="52" t="s">
+        <v>16</v>
+      </c>
+      <c r="E56" s="52"/>
+      <c r="F56" s="52"/>
+      <c r="G56" s="52"/>
+      <c r="H56" s="17"/>
+      <c r="I56" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="J55" s="20"/>
-      <c r="K55" s="21"/>
-      <c r="L55" s="65"/>
-    </row>
-    <row r="56" spans="1:12" ht="13.5">
-      <c r="D56" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E56" s="9"/>
-      <c r="F56" s="9"/>
-      <c r="G56" s="9"/>
-      <c r="H56" s="63"/>
-      <c r="I56" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="J56" s="11"/>
-      <c r="K56" s="12"/>
-      <c r="L56" s="66"/>
-    </row>
-    <row r="60" spans="1:12" ht="15">
-      <c r="A60" s="22" t="s">
+      <c r="J56" s="50"/>
+      <c r="K56" s="51"/>
+      <c r="L56" s="20"/>
+    </row>
+    <row r="60" spans="1:12" ht="14.4">
+      <c r="A60" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B60" s="22"/>
-      <c r="C60" s="22"/>
-      <c r="D60" s="22"/>
-      <c r="E60" s="22"/>
-      <c r="F60" s="23"/>
-      <c r="G60" s="24" t="s">
+      <c r="B60" s="27"/>
+      <c r="C60" s="27"/>
+      <c r="D60" s="27"/>
+      <c r="E60" s="27"/>
+      <c r="F60" s="53"/>
+      <c r="G60" s="60" t="s">
+        <v>28</v>
+      </c>
+      <c r="H60" s="61"/>
+      <c r="I60" s="61"/>
+      <c r="J60" s="61"/>
+      <c r="K60" s="62"/>
+      <c r="L60" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" ht="14.4">
+      <c r="A61" s="27"/>
+      <c r="B61" s="27"/>
+      <c r="C61" s="27"/>
+      <c r="D61" s="27"/>
+      <c r="E61" s="27"/>
+      <c r="F61" s="53"/>
+      <c r="G61" s="63" t="s">
         <v>29</v>
       </c>
-      <c r="H60" s="25"/>
-      <c r="I60" s="25"/>
-      <c r="J60" s="25"/>
-      <c r="K60" s="26"/>
-      <c r="L60" s="7" t="s">
+      <c r="H61" s="64"/>
+      <c r="I61" s="64"/>
+      <c r="J61" s="64"/>
+      <c r="K61" s="65"/>
+      <c r="L61" s="1"/>
+    </row>
+    <row r="62" spans="1:12" ht="13.8">
+      <c r="A62" s="28" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="61" spans="1:12" ht="15">
-      <c r="A61" s="22"/>
-      <c r="B61" s="22"/>
-      <c r="C61" s="22"/>
-      <c r="D61" s="22"/>
-      <c r="E61" s="22"/>
-      <c r="F61" s="23"/>
-      <c r="G61" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="H61" s="28"/>
-      <c r="I61" s="28"/>
-      <c r="J61" s="28"/>
-      <c r="K61" s="29"/>
-      <c r="L61" s="1"/>
-    </row>
-    <row r="62" spans="1:12" ht="13.5">
-      <c r="A62" s="30" t="s">
-        <v>3</v>
-      </c>
-      <c r="B62" s="30"/>
-      <c r="C62" s="30"/>
-      <c r="D62" s="30"/>
-      <c r="E62" s="30"/>
-      <c r="F62" s="30"/>
-      <c r="G62" s="30"/>
-      <c r="H62" s="30"/>
-      <c r="I62" s="30"/>
-      <c r="J62" s="30"/>
-      <c r="K62" s="30"/>
-      <c r="L62" s="30"/>
+      <c r="B62" s="28"/>
+      <c r="C62" s="28"/>
+      <c r="D62" s="28"/>
+      <c r="E62" s="28"/>
+      <c r="F62" s="28"/>
+      <c r="G62" s="28"/>
+      <c r="H62" s="28"/>
+      <c r="I62" s="28"/>
+      <c r="J62" s="28"/>
+      <c r="K62" s="28"/>
+      <c r="L62" s="28"/>
     </row>
     <row r="63" spans="1:12">
       <c r="A63" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B63" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B63" s="4" t="s">
+      <c r="C63" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C63" s="3" t="s">
+      <c r="D63" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="D63" s="31" t="s">
+      <c r="E63" s="30"/>
+      <c r="F63" s="31"/>
+      <c r="G63" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E63" s="32"/>
-      <c r="F63" s="33"/>
-      <c r="G63" s="5" t="s">
+      <c r="H63" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H63" s="3" t="s">
+      <c r="I63" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="I63" s="34" t="s">
+      <c r="J63" s="33"/>
+      <c r="K63" s="34"/>
+      <c r="L63" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="J63" s="35"/>
-      <c r="K63" s="36"/>
-      <c r="L63" s="4" t="s">
+    </row>
+    <row r="64" spans="1:12" ht="51.9" customHeight="1">
+      <c r="A64" s="9"/>
+      <c r="B64" s="10"/>
+      <c r="C64" s="11"/>
+      <c r="D64" s="21"/>
+      <c r="E64" s="22"/>
+      <c r="F64" s="23"/>
+      <c r="G64" s="12"/>
+      <c r="H64" s="15"/>
+      <c r="I64" s="24"/>
+      <c r="J64" s="25"/>
+      <c r="K64" s="26"/>
+      <c r="L64" s="18"/>
+    </row>
+    <row r="65" spans="1:12">
+      <c r="A65" s="41"/>
+      <c r="B65" s="41"/>
+      <c r="C65" s="42"/>
+      <c r="D65" s="43" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="64" spans="1:12" ht="51.95" customHeight="1">
-      <c r="A64" s="49"/>
-      <c r="B64" s="50"/>
-      <c r="C64" s="51"/>
-      <c r="D64" s="52"/>
-      <c r="E64" s="53"/>
-      <c r="F64" s="54"/>
-      <c r="G64" s="55"/>
-      <c r="H64" s="61"/>
-      <c r="I64" s="56"/>
-      <c r="J64" s="57"/>
-      <c r="K64" s="58"/>
-      <c r="L64" s="64"/>
-    </row>
-    <row r="65" spans="1:12">
-      <c r="A65" s="14"/>
-      <c r="B65" s="14"/>
-      <c r="C65" s="15"/>
-      <c r="D65" s="16" t="s">
+      <c r="E65" s="44"/>
+      <c r="F65" s="44"/>
+      <c r="G65" s="45"/>
+      <c r="H65" s="16"/>
+      <c r="I65" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="E65" s="17"/>
-      <c r="F65" s="17"/>
-      <c r="G65" s="18"/>
-      <c r="H65" s="62"/>
-      <c r="I65" s="19" t="s">
+      <c r="J65" s="47"/>
+      <c r="K65" s="48"/>
+      <c r="L65" s="19"/>
+    </row>
+    <row r="66" spans="1:12" ht="13.8">
+      <c r="D66" s="52" t="s">
+        <v>16</v>
+      </c>
+      <c r="E66" s="52"/>
+      <c r="F66" s="52"/>
+      <c r="G66" s="52"/>
+      <c r="H66" s="17"/>
+      <c r="I66" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="J65" s="20"/>
-      <c r="K65" s="21"/>
-      <c r="L65" s="65"/>
-    </row>
-    <row r="66" spans="1:12" ht="13.5">
-      <c r="D66" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E66" s="9"/>
-      <c r="F66" s="9"/>
-      <c r="G66" s="9"/>
-      <c r="H66" s="63"/>
-      <c r="I66" s="10" t="s">
+      <c r="J66" s="50"/>
+      <c r="K66" s="51"/>
+      <c r="L66" s="20"/>
+    </row>
+    <row r="68" spans="1:12" ht="30.75" customHeight="1">
+      <c r="F68" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="J66" s="11"/>
-      <c r="K66" s="12"/>
-      <c r="L66" s="66"/>
-    </row>
-    <row r="68" spans="1:12" ht="30.75" customHeight="1">
-      <c r="F68" s="13" t="s">
+      <c r="G68" s="66"/>
+      <c r="H68" s="13"/>
+      <c r="I68" s="66" t="s">
         <v>15</v>
       </c>
-      <c r="G68" s="13"/>
-      <c r="H68" s="59"/>
-      <c r="I68" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="J68" s="13"/>
-      <c r="K68" s="13"/>
-      <c r="L68" s="60"/>
+      <c r="J68" s="66"/>
+      <c r="K68" s="66"/>
+      <c r="L68" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="93">
+    <mergeCell ref="D66:G66"/>
+    <mergeCell ref="I66:K66"/>
+    <mergeCell ref="F68:G68"/>
+    <mergeCell ref="I68:K68"/>
+    <mergeCell ref="D64:F64"/>
+    <mergeCell ref="I64:K64"/>
+    <mergeCell ref="A65:C65"/>
+    <mergeCell ref="D65:G65"/>
+    <mergeCell ref="I65:K65"/>
+    <mergeCell ref="A60:F61"/>
+    <mergeCell ref="G60:K60"/>
+    <mergeCell ref="G61:K61"/>
+    <mergeCell ref="A62:L62"/>
+    <mergeCell ref="D63:F63"/>
+    <mergeCell ref="I63:K63"/>
+    <mergeCell ref="A55:C55"/>
+    <mergeCell ref="D55:G55"/>
+    <mergeCell ref="I55:K55"/>
+    <mergeCell ref="D56:G56"/>
+    <mergeCell ref="I56:K56"/>
+    <mergeCell ref="A52:L52"/>
+    <mergeCell ref="D53:F53"/>
+    <mergeCell ref="I53:K53"/>
+    <mergeCell ref="D54:F54"/>
+    <mergeCell ref="I54:K54"/>
+    <mergeCell ref="D46:G46"/>
+    <mergeCell ref="I46:K46"/>
+    <mergeCell ref="A50:F51"/>
+    <mergeCell ref="G50:K50"/>
+    <mergeCell ref="G51:K51"/>
+    <mergeCell ref="D44:F44"/>
+    <mergeCell ref="I44:K44"/>
+    <mergeCell ref="A45:C45"/>
+    <mergeCell ref="D45:G45"/>
+    <mergeCell ref="I45:K45"/>
+    <mergeCell ref="A40:F41"/>
+    <mergeCell ref="G40:K40"/>
+    <mergeCell ref="G41:K41"/>
+    <mergeCell ref="A42:L42"/>
+    <mergeCell ref="D43:F43"/>
+    <mergeCell ref="I43:K43"/>
+    <mergeCell ref="A35:C35"/>
+    <mergeCell ref="D35:G35"/>
+    <mergeCell ref="I35:K35"/>
+    <mergeCell ref="D36:G36"/>
+    <mergeCell ref="I36:K36"/>
+    <mergeCell ref="A32:L32"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="I33:K33"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="I34:K34"/>
+    <mergeCell ref="D26:G26"/>
+    <mergeCell ref="I26:K26"/>
+    <mergeCell ref="A30:F31"/>
+    <mergeCell ref="G30:K30"/>
+    <mergeCell ref="G31:K31"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="I24:K24"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="D25:G25"/>
+    <mergeCell ref="I25:K25"/>
+    <mergeCell ref="A20:F21"/>
+    <mergeCell ref="A22:L22"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="I23:K23"/>
+    <mergeCell ref="G20:K20"/>
+    <mergeCell ref="G21:K21"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="D15:G15"/>
+    <mergeCell ref="I15:K15"/>
+    <mergeCell ref="D16:G16"/>
+    <mergeCell ref="I16:K16"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="A12:L12"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="I13:K13"/>
     <mergeCell ref="D14:F14"/>
     <mergeCell ref="I14:K14"/>
     <mergeCell ref="A1:F2"/>
@@ -2144,83 +2179,6 @@
     <mergeCell ref="I7:K7"/>
     <mergeCell ref="D7:G7"/>
     <mergeCell ref="A10:F11"/>
-    <mergeCell ref="H10:K10"/>
-    <mergeCell ref="H11:K11"/>
-    <mergeCell ref="A12:L12"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="I13:K13"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="D15:G15"/>
-    <mergeCell ref="I15:K15"/>
-    <mergeCell ref="D16:G16"/>
-    <mergeCell ref="I16:K16"/>
-    <mergeCell ref="A20:F21"/>
-    <mergeCell ref="A22:L22"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="I23:K23"/>
-    <mergeCell ref="G20:K20"/>
-    <mergeCell ref="G21:K21"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="I24:K24"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="D25:G25"/>
-    <mergeCell ref="I25:K25"/>
-    <mergeCell ref="D26:G26"/>
-    <mergeCell ref="I26:K26"/>
-    <mergeCell ref="A30:F31"/>
-    <mergeCell ref="G30:K30"/>
-    <mergeCell ref="G31:K31"/>
-    <mergeCell ref="A32:L32"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="I33:K33"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="I34:K34"/>
-    <mergeCell ref="A35:C35"/>
-    <mergeCell ref="D35:G35"/>
-    <mergeCell ref="I35:K35"/>
-    <mergeCell ref="D36:G36"/>
-    <mergeCell ref="I36:K36"/>
-    <mergeCell ref="A40:F41"/>
-    <mergeCell ref="G40:K40"/>
-    <mergeCell ref="G41:K41"/>
-    <mergeCell ref="A42:L42"/>
-    <mergeCell ref="D43:F43"/>
-    <mergeCell ref="I43:K43"/>
-    <mergeCell ref="D44:F44"/>
-    <mergeCell ref="I44:K44"/>
-    <mergeCell ref="A45:C45"/>
-    <mergeCell ref="D45:G45"/>
-    <mergeCell ref="I45:K45"/>
-    <mergeCell ref="D46:G46"/>
-    <mergeCell ref="I46:K46"/>
-    <mergeCell ref="A50:F51"/>
-    <mergeCell ref="G50:K50"/>
-    <mergeCell ref="G51:K51"/>
-    <mergeCell ref="A52:L52"/>
-    <mergeCell ref="D53:F53"/>
-    <mergeCell ref="I53:K53"/>
-    <mergeCell ref="D54:F54"/>
-    <mergeCell ref="I54:K54"/>
-    <mergeCell ref="A55:C55"/>
-    <mergeCell ref="D55:G55"/>
-    <mergeCell ref="I55:K55"/>
-    <mergeCell ref="D56:G56"/>
-    <mergeCell ref="I56:K56"/>
-    <mergeCell ref="A65:C65"/>
-    <mergeCell ref="D65:G65"/>
-    <mergeCell ref="I65:K65"/>
-    <mergeCell ref="A60:F61"/>
-    <mergeCell ref="G60:K60"/>
-    <mergeCell ref="G61:K61"/>
-    <mergeCell ref="A62:L62"/>
-    <mergeCell ref="D63:F63"/>
-    <mergeCell ref="I63:K63"/>
-    <mergeCell ref="D66:G66"/>
-    <mergeCell ref="I66:K66"/>
-    <mergeCell ref="F68:G68"/>
-    <mergeCell ref="I68:K68"/>
-    <mergeCell ref="D64:F64"/>
-    <mergeCell ref="I64:K64"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="82" fitToHeight="0" orientation="landscape" r:id="rId1"/>
